--- a/sars-cov-2-genomes-omicron-mutation-matches-FZ.xlsx
+++ b/sars-cov-2-genomes-omicron-mutation-matches-FZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\sars-cov-2-genomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C8A46-BFCA-4A43-B747-21E0EF4614B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E7AB5-805D-45A9-B15E-D45F65AB29A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="237">
   <si>
     <t>Genomic matching results for Omicron</t>
   </si>
@@ -511,9 +511,6 @@
     <t>https://github.com/NetaZuckerman/covid19/blob/master/mutationsTable.xlsx</t>
   </si>
   <si>
-    <t>2021-12-20 08:13 (GMT +10)</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -590,6 +587,150 @@
   </si>
   <si>
     <t>EPI_ISL_7765216</t>
+  </si>
+  <si>
+    <t>2021-12-23 14:46 (GMT +10)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7883683</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7883681</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7883682</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7883680</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7883679</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7898582</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7898639</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7898716</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7898515</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7897868</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7897869</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7868872</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7860002</t>
+  </si>
+  <si>
+    <t>AY.113 (Delta)</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7860055</t>
+  </si>
+  <si>
+    <t>AY.1 (Delta)</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7875821</t>
+  </si>
+  <si>
+    <t>Western Cape Province</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7881867</t>
+  </si>
+  <si>
+    <t>B.6</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7881906</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7882985</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Negombo</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7877283</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7842429</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7889927</t>
+  </si>
+  <si>
+    <t>AY.126 (Delta)</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7890046</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7889931</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7848702</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7850785</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7850777</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>EPI_ISL_7833393</t>
   </si>
 </sst>
 </file>
@@ -753,7 +894,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A21:G127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A21:G154">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Country"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Location"/>
@@ -968,7 +1109,7 @@
   <dimension ref="A1:G1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -996,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1108,16 +1249,16 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="C22" s="12">
         <v>44540</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>20</v>
@@ -1180,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="12">
         <v>44543</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>20</v>
@@ -1462,7 +1603,7 @@
         <v>44531</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>51</v>
@@ -1899,7 +2040,7 @@
         <v>44525</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>64</v>
@@ -1922,7 +2063,7 @@
         <v>44525</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -2028,16 +2169,16 @@
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C62" s="12">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -2046,21 +2187,21 @@
         <v>1</v>
       </c>
       <c r="G62" s="13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="C63" s="12">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -2069,21 +2210,21 @@
         <v>1</v>
       </c>
       <c r="G63" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="C64" s="12">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>20</v>
@@ -2092,21 +2233,21 @@
         <v>1</v>
       </c>
       <c r="G64" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="C65" s="12">
-        <v>44538</v>
+        <v>44542</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>20</v>
@@ -2115,21 +2256,21 @@
         <v>1</v>
       </c>
       <c r="G65" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="C66" s="12">
-        <v>44537</v>
+        <v>44540</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
@@ -2138,21 +2279,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C67" s="12">
-        <v>44539</v>
+        <v>44545</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>20</v>
@@ -2161,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="G67" s="13">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C68" s="12">
-        <v>44531</v>
+        <v>44543</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>20</v>
@@ -2184,44 +2325,44 @@
         <v>1</v>
       </c>
       <c r="G68" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="C69" s="12">
-        <v>44530</v>
+        <v>44543</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="F69" s="13">
         <v>1</v>
       </c>
       <c r="G69" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C70" s="12">
-        <v>44531</v>
+        <v>44541</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>20</v>
@@ -2230,21 +2371,21 @@
         <v>1</v>
       </c>
       <c r="G70" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C71" s="12">
-        <v>44531</v>
+        <v>44540</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>20</v>
@@ -2253,21 +2394,21 @@
         <v>1</v>
       </c>
       <c r="G71" s="13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C72" s="12">
-        <v>44530</v>
+        <v>44540</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>20</v>
@@ -2276,21 +2417,21 @@
         <v>1</v>
       </c>
       <c r="G72" s="13">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C73" s="12">
-        <v>44530</v>
+        <v>44539</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>20</v>
@@ -2299,21 +2440,21 @@
         <v>1</v>
       </c>
       <c r="G73" s="13">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C74" s="12">
-        <v>44530</v>
+        <v>44538</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>20</v>
@@ -2322,21 +2463,21 @@
         <v>1</v>
       </c>
       <c r="G74" s="13">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C75" s="12">
-        <v>44529</v>
+        <v>44537</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>20</v>
@@ -2345,21 +2486,21 @@
         <v>1</v>
       </c>
       <c r="G75" s="13">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="C76" s="12">
-        <v>44529</v>
+        <v>44539</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>20</v>
@@ -2368,21 +2509,21 @@
         <v>1</v>
       </c>
       <c r="G76" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C77" s="12">
-        <v>44528</v>
+        <v>44531</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>20</v>
@@ -2391,30 +2532,30 @@
         <v>1</v>
       </c>
       <c r="G77" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="C78" s="12">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="F78" s="13">
         <v>1</v>
       </c>
       <c r="G78" s="13">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2425,10 +2566,10 @@
         <v>87</v>
       </c>
       <c r="C79" s="12">
-        <v>44527</v>
+        <v>44531</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>20</v>
@@ -2448,10 +2589,10 @@
         <v>87</v>
       </c>
       <c r="C80" s="12">
-        <v>44526</v>
+        <v>44531</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>20</v>
@@ -2471,10 +2612,10 @@
         <v>87</v>
       </c>
       <c r="C81" s="12">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>20</v>
@@ -2494,10 +2635,10 @@
         <v>87</v>
       </c>
       <c r="C82" s="12">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>20</v>
@@ -2506,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2517,10 +2658,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="12">
-        <v>44525</v>
+        <v>44530</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>20</v>
@@ -2529,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2540,10 +2681,10 @@
         <v>87</v>
       </c>
       <c r="C84" s="12">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>20</v>
@@ -2552,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2563,10 +2704,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="12">
-        <v>44505</v>
+        <v>44529</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>20</v>
@@ -2575,21 +2716,21 @@
         <v>1</v>
       </c>
       <c r="G85" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C86" s="12">
-        <v>44518</v>
+        <v>44528</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>20</v>
@@ -2598,21 +2739,21 @@
         <v>1</v>
       </c>
       <c r="G86" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C87" s="12">
-        <v>44513</v>
+        <v>44528</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>20</v>
@@ -2621,21 +2762,21 @@
         <v>1</v>
       </c>
       <c r="G87" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C88" s="12">
-        <v>44545</v>
+        <v>44527</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>20</v>
@@ -2644,21 +2785,21 @@
         <v>1</v>
       </c>
       <c r="G88" s="13">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C89" s="12">
-        <v>44537</v>
+        <v>44526</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>20</v>
@@ -2667,21 +2808,21 @@
         <v>1</v>
       </c>
       <c r="G89" s="13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C90" s="12">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>20</v>
@@ -2690,67 +2831,67 @@
         <v>1</v>
       </c>
       <c r="G90" s="13">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C91" s="12">
-        <v>44531</v>
+        <v>44526</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="F91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C92" s="12">
-        <v>44528</v>
+        <v>44525</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C93" s="12">
-        <v>44533</v>
+        <v>44522</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>20</v>
@@ -2764,16 +2905,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C94" s="12">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>20</v>
@@ -2782,21 +2923,21 @@
         <v>1</v>
       </c>
       <c r="G94" s="13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C95" s="12">
-        <v>44533</v>
+        <v>44518</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>20</v>
@@ -2805,21 +2946,21 @@
         <v>1</v>
       </c>
       <c r="G95" s="13">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C96" s="12">
-        <v>44530</v>
+        <v>44513</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>20</v>
@@ -2828,21 +2969,21 @@
         <v>1</v>
       </c>
       <c r="G96" s="13">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="C97" s="12">
-        <v>44530</v>
+        <v>44545</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>20</v>
@@ -2851,21 +2992,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="13">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C98" s="12">
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>20</v>
@@ -2874,21 +3015,21 @@
         <v>1</v>
       </c>
       <c r="G98" s="13">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C99" s="12">
-        <v>44529</v>
+        <v>44533</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>20</v>
@@ -2897,67 +3038,67 @@
         <v>1</v>
       </c>
       <c r="G99" s="13">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="C100" s="12">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F100" s="13">
         <v>1</v>
       </c>
       <c r="G100" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C101" s="12">
-        <v>44526</v>
+        <v>44528</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F101" s="13">
         <v>1</v>
       </c>
       <c r="G101" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C102" s="12">
-        <v>44526</v>
+        <v>44546</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>20</v>
@@ -2966,21 +3107,21 @@
         <v>1</v>
       </c>
       <c r="G102" s="13">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C103" s="12">
-        <v>44526</v>
+        <v>44545</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>20</v>
@@ -2989,21 +3130,21 @@
         <v>1</v>
       </c>
       <c r="G103" s="13">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="C104" s="12">
-        <v>44526</v>
+        <v>44539</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>20</v>
@@ -3012,67 +3153,67 @@
         <v>1</v>
       </c>
       <c r="G104" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C105" s="12">
         <v>44526</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="F105" s="13">
         <v>1</v>
       </c>
       <c r="G105" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C106" s="12">
-        <v>44525</v>
+        <v>44523</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="F106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="13">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C107" s="12">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>20</v>
@@ -3081,21 +3222,21 @@
         <v>1</v>
       </c>
       <c r="G107" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C108" s="12">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>20</v>
@@ -3104,21 +3245,21 @@
         <v>1</v>
       </c>
       <c r="G108" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C109" s="12">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>20</v>
@@ -3127,21 +3268,21 @@
         <v>1</v>
       </c>
       <c r="G109" s="13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C110" s="12">
-        <v>44525</v>
+        <v>44541</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>20</v>
@@ -3150,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3158,16 +3299,16 @@
         <v>30</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="C111" s="12">
-        <v>44524</v>
+        <v>44540</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="F111" s="13">
         <v>1</v>
@@ -3181,22 +3322,22 @@
         <v>30</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="C112" s="12">
-        <v>44523</v>
+        <v>44538</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="F112" s="13">
         <v>1</v>
       </c>
       <c r="G112" s="13">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3204,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C113" s="12">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>20</v>
@@ -3219,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="13">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3227,13 +3368,13 @@
         <v>30</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C114" s="12">
-        <v>44522</v>
+        <v>44530</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>20</v>
@@ -3242,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="13">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3250,13 +3391,13 @@
         <v>30</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C115" s="12">
-        <v>44522</v>
+        <v>44530</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>20</v>
@@ -3265,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="13">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3273,13 +3414,13 @@
         <v>30</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C116" s="12">
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>20</v>
@@ -3288,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3296,13 +3437,13 @@
         <v>30</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C117" s="12">
-        <v>44518</v>
+        <v>44529</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>20</v>
@@ -3311,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3319,13 +3460,13 @@
         <v>30</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C118" s="12">
-        <v>44518</v>
+        <v>44526</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>20</v>
@@ -3334,21 +3475,21 @@
         <v>1</v>
       </c>
       <c r="G118" s="13">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C119" s="12">
-        <v>44534</v>
+        <v>44526</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>20</v>
@@ -3357,21 +3498,21 @@
         <v>1</v>
       </c>
       <c r="G119" s="13">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C120" s="12">
-        <v>44534</v>
+        <v>44526</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>20</v>
@@ -3380,21 +3521,21 @@
         <v>1</v>
       </c>
       <c r="G120" s="13">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C121" s="12">
-        <v>44528</v>
+        <v>44526</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>20</v>
@@ -3403,21 +3544,21 @@
         <v>1</v>
       </c>
       <c r="G121" s="13">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="C122" s="12">
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>20</v>
@@ -3426,157 +3567,751 @@
         <v>1</v>
       </c>
       <c r="G122" s="13">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C123" s="12">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="F123" s="13">
         <v>1</v>
       </c>
       <c r="G123" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C124" s="12">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F124" s="13">
         <v>1</v>
       </c>
       <c r="G124" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C125" s="12">
-        <v>44539</v>
+        <v>44525</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="F125" s="13">
         <v>1</v>
       </c>
       <c r="G125" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C126" s="12">
-        <v>44537</v>
+        <v>44525</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="F126" s="13">
         <v>1</v>
       </c>
       <c r="G126" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="12">
+        <v>44525</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="13">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" s="12">
+        <v>44524</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="13">
+        <v>1</v>
+      </c>
+      <c r="G128" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="12">
+        <v>44523</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="13">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="12">
+        <v>44523</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="13">
+        <v>1</v>
+      </c>
+      <c r="G130" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" s="12">
+        <v>44522</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="13">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" s="12">
+        <v>44522</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="13">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="12">
+        <v>44522</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="13">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="12">
+        <v>44518</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="13">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="12">
+        <v>44518</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="13">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="12">
+        <v>44516</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F136" s="13">
+        <v>1</v>
+      </c>
+      <c r="G136" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" s="12">
+        <v>44541</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="13">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="12">
+        <v>44534</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="12">
+        <v>44534</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="13">
+        <v>1</v>
+      </c>
+      <c r="G139" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="12">
+        <v>44528</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="13">
+        <v>1</v>
+      </c>
+      <c r="G140" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="12">
+        <v>44529</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="13">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="12">
+        <v>44541</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="13">
+        <v>1</v>
+      </c>
+      <c r="G142" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="12">
+        <v>44539</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F143" s="13">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B144" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="12">
+        <v>44544</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F144" s="13">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C145" s="12">
+        <v>44544</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="13">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C146" s="12">
+        <v>44543</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F146" s="13">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C147" s="12">
+        <v>44541</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" s="13">
+        <v>1</v>
+      </c>
+      <c r="G147" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="12">
+        <v>44539</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F148" s="13">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="12">
+        <v>44539</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F149" s="13">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="12">
+        <v>44538</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="13">
+        <v>1</v>
+      </c>
+      <c r="G150" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="12">
+        <v>44538</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="13">
+        <v>1</v>
+      </c>
+      <c r="G151" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152" s="12">
+        <v>44537</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F152" s="13">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C153" s="12">
+        <v>44536</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="13">
+        <v>1</v>
+      </c>
+      <c r="G153" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="12">
         <v>44530</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D154" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E127" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F127" s="13">
-        <v>1</v>
-      </c>
-      <c r="G127" s="13">
+      <c r="E154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="13">
+        <v>1</v>
+      </c>
+      <c r="G154" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
